--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/54_Kütahya_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/54_Kütahya_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52220AF9-551E-4EA5-8EE8-08306DE744CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B9B88C-C9FA-4C89-A6D4-9CBC95E29CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{44B7F3DA-8F88-4E0E-9E9B-408E994A4D32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{1FA7DCA7-8613-4342-B74F-29BF774ABB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -918,13 +918,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3813B403-EC73-4AEE-AE63-B460DCDAAF3C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E172CF00-57B4-400B-B9BD-07E86EBFBA79}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{17859F68-63D1-47D4-9A0E-85410CAC0188}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{ECB92261-EAD4-45CF-9421-ECB107438C1F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E322C5A2-923C-459E-B689-4BB1F02D4F2F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{08EEE1EF-A6B9-4E58-8467-9D2EED577B8F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3A332649-80D6-4FB0-9363-9738ED72389A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E85317F5-01DA-41F1-99E8-CA19BE8A0103}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9FC2983D-5896-420C-BEB5-287D21B61539}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A43DB05D-02AB-4D3E-938C-6186224A0171}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{63612D8A-C573-4E99-8EEF-803C8823C728}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0DDE192B-68F4-4FD5-9799-C5773212412B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C4B49771-6F0C-43A5-9DFF-11BF23EBBA42}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F2786DD5-4FA6-4F3F-BF22-2C8F0E14CE60}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FADA8B0-145A-4651-B7BD-547CE1FA30F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8E3909-8D14-4DEB-8709-DDE4961F5346}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2588,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7397FD-89A1-49AE-B632-9BE52E24B23A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888E6EB8-3CDF-4654-A53C-60B37EF25A5B}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3872,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAD33BD-3479-4C76-B99B-ED9003187A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B71F08-9979-4373-96E2-C2D865DD83DE}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5154,7 +5154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DDE3E3-E182-4B3B-8123-30EDF67F20ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5D7238-62FD-4BA4-983F-E4BE28367B67}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6438,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F342D24D-0073-4811-9294-36F76B9D80A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D909792-56D0-4DC4-B70E-4D903DDE3946}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7734,7 +7734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D2EE04-4ACA-47DF-9575-4AA21ACA34A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62AF06E-1DC7-4F85-8DFA-836828EFB5F7}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9028,7 +9028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C0572-56A1-44CA-9CBA-70CB87F72156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBC5E21-7C1F-4169-B51C-C36E924B48FF}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10324,7 +10324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3294219E-C059-487D-9511-0A8C942AAB39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C44C7E-6D75-4746-8913-CE13C6CC283F}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BBDFAA-1DBE-4C3A-A5FB-3F1253A80C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D90FD-309C-49A0-A4EE-38899E5B256B}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12906,7 +12906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F1A914-22BD-4FCD-8717-9024E7064F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DB05C4-913E-4419-A011-1143CF8594F5}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14194,7 +14194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3DCA65-42AF-4A5E-BC8C-8AE3E73A92C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C5613-E4AE-4AC2-AB08-863AF6540F37}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15472,7 +15472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BE8931-6734-4093-9412-51A0D810300A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20190CE5-F507-4D84-9F37-104915093A87}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
